--- a/coordinates_sample/701云中郡/701云中郡.xlsx
+++ b/coordinates_sample/701云中郡/701云中郡.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/701云中郡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C56636E-182C-844B-9BAE-FD4070F5127D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003E5357-491C-FB4E-A8A2-A591C40ABB9B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="1120" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="701云中郡" sheetId="1" r:id="rId1"/>
+    <sheet name="701" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="38">
   <si>
     <t>county_han</t>
   </si>
@@ -126,13 +127,25 @@
   <si>
     <t>PUBLICATION</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_COOR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_COOR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -143,6 +156,11 @@
       <name val="Adobe Fangsong Std R"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -484,16 +502,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1024" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -557,7 +575,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -589,7 +607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -621,7 +639,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -653,7 +671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -685,7 +703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -717,7 +735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -749,7 +767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -781,7 +799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -813,7 +831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -845,7 +863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -875,6 +893,298 @@
       </c>
       <c r="J12" t="s">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741F9C13-A747-754C-8028-B2A70D5D6D3B}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>111.5061793</v>
+      </c>
+      <c r="D2">
+        <v>40.667250199999998</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1">
+        <v>70101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>110.8608553</v>
+      </c>
+      <c r="D3">
+        <v>40.639320099999999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1">
+        <v>70102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>111.7033437</v>
+      </c>
+      <c r="D4">
+        <v>40.883817800000003</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1">
+        <v>70103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>111.18912229999999</v>
+      </c>
+      <c r="D5">
+        <v>40.266163200000001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1">
+        <v>70104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>110.28161830000001</v>
+      </c>
+      <c r="D6">
+        <v>40.901512199999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1">
+        <v>70105</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>111.1748733</v>
+      </c>
+      <c r="D7">
+        <v>40.352574099999998</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1">
+        <v>70106</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>111.7301633</v>
+      </c>
+      <c r="D8">
+        <v>40.789177100000003</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1">
+        <v>70107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>111.1621833</v>
+      </c>
+      <c r="D9">
+        <v>39.902002099999997</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1">
+        <v>70108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>111.36765440000001</v>
+      </c>
+      <c r="D10">
+        <v>40.816664899999999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1">
+        <v>70109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>111.8142673</v>
+      </c>
+      <c r="D11">
+        <v>40.929586100000002</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1">
+        <v>70110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>110.7261884</v>
+      </c>
+      <c r="D12">
+        <v>40.345521400000003</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1">
+        <v>70111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
